--- a/Industry/201612-201908/HKD/MILLION/Analysis_146_Fuels (C&SD End-use Categories)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_146_Fuels (C&SD End-use Categories)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="768" yWindow="768"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -14708,6 +14709,691 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="9"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2206.901</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2665.588</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.784</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2061.455</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3707.752</v>
+      </c>
+      <c r="G2" t="n">
+        <v>39.097</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2423.411</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17.558</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2201.814</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2660.089</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.813</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2057.871</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3702.423</v>
+      </c>
+      <c r="G3" t="n">
+        <v>39.184</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2416.963</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>99.77</v>
+      </c>
+      <c r="K3" t="n">
+        <v>99.794</v>
+      </c>
+      <c r="L3" t="n">
+        <v>99.82599999999999</v>
+      </c>
+      <c r="M3" t="n">
+        <v>99.85599999999999</v>
+      </c>
+      <c r="N3" t="n">
+        <v>99.73399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.373</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-14.159</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.406</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G4" t="n">
+        <v>51.47</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="I4" t="n">
+        <v>118.453</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.811</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.817</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.895</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.268</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.651</v>
+      </c>
+      <c r="I5" t="n">
+        <v>24.152</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D6" t="n">
+        <v>63.518</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-76.693</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="I6" t="n">
+        <v>181.807</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.389</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="D8" t="n">
+        <v>96.209</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-29.132</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.316</v>
+      </c>
+      <c r="I8" t="n">
+        <v>22.507</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-32.791</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.541</v>
+      </c>
+      <c r="G9" t="n">
+        <v>419.243</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-35.139</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="10"/>
